--- a/finetuning/it_datasets/it_dataset/it_akouda_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_akouda_dataset.xlsx
@@ -630,9 +630,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>If you're in Akouda, the CAFE LAADHARI is a top-rated destination for Cafe lovers. With a rating of 4.1, this cafe is a perfect spot to enjoy a range of offerings. Its location is WH57+CGM CAFE LAADHARI, Akouda. 
-To get there, use these GPS coordinates: (35.8736484, 10.5695322) or follow this link 
-https://www.google.com/maps/place/CAFE+LAADHARI/data=!4m7!3m6!1s0x12fd89d0858f0e6b:0xe7db0eeaa38a4556!8m2!3d35.9085989!4d10.563783!16s%2Fg%2F11sgz12kxg!19sChIJaw6PhdCJ_RIRVkWKo-oO2-c?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>CAFE LAADHARI is a cafe located in akouda with an impressive rating of 4.1 based on 51 reviews. The cafe offers various quad specialties, a popular item among its customers. Geographically, CAFE LAADHARI is situated at the coordinates (35.8736484, 10.5695322), making it easily accessible to visitors in the area.</t>
         </is>
       </c>
     </row>
@@ -729,7 +727,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out Cafe Hilal located at VH8C+85R Cafe Hilal, Akouda. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 04:30-00:00, but closed on . To get there, use these GPS coordinates: 35.8736484, 10.5695322. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Hilal/data=!4m7!3m6!1s0x12fd8bcbeccb5895:0x58ffd0dce2188327!8m2!3d35.8658637!4d10.5703919!16s%2Fg%2F1td80h0b!19sChIJlVjL7MuL_RIRJ4MY4tzQ_1g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 374 349.</t>
+          <t>Discover Cafe Hilal, located in Akouda. Its prime location offers easy accessibility. Step into a cozy atmosphere and savor delectable offerings from their curated menu. Cafe Hilal awaits your visit, promising a delightful culinary experience.</t>
         </is>
       </c>
     </row>
@@ -822,9 +820,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out Time Cafe located at VHJ8+3VP Time Cafe, Rue 2 Mars, Akouda. 
-This top-rated destination is the perfect spot for Cafe lovers. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on none. To get there, use these GPS coordinates: 35.8736484, 10.5695322. For more details, visit their website at or call them at.</t>
+          <t>Time Cafe is a cafe located in Akouda, Tunisia, at coordinates (35.8736484, 10.5695322). It offers a wide range of services, including coffee, tea, and other beverages, as well as food items. The cafe is open from 6 AM to midnight, and it is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -925,7 +921,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for a top-rated Salon de the, check out Giornale located at VH88+73F Av. de la Republique. This must-visit spot offers a 5.0 rating and is open from 05:00-01:00. To get there, use these GPS coordinates: (35.865962839867, 10.571616025297). For more details, visit their Facebook page at https://www.facebook.com/giornalecafe or call them at 53 563 050.</t>
+          <t>Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1014,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>If you're in Akouda and looking for a great place to grab a bite, try Prima Cafe at VH9J+8MJ. This top-rated cafe is perfect for coffee lovers and offers a range of beverages to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 35.8736484, 10.5695322. For more details, access their website: https://www.google.com/maps/place/Prima+Cafe/data=!4m7!3m6!1s0x12fd8a31754b3aeb:0x3c2a4896b0b7892c!8m2!3d35.8683406!4d10.5816542!16s%2Fg%2F11f0kq9bj5!19sChIJ6zpLdTGK_RIRLIm3sJZIKjw?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Prima Café is a 4-star café located in Akouda, Tunisia. Open from 5 AM until midnight, it offers a warm and inviting space for customers to enjoy a variety of delicious food and drinks. Located at coordinates (35.8736484, 10.5695322), this café is easily accessible and offers a great place to relax and unwind.</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1107,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>If you're in Akouda and looking for a cozy and delicious café experience, visit Djo Cafe located at VH8G+MMG. As a top-rated destination for café lovers, it offers a delightful range of beverages and pastries to satisfy your cravings. With an impressive rating of 4.9, it's a must-visit spot. It welcomes you from 07:00 to 23:00 during the week. For more information or reservations, visit their website or contact them directly.</t>
+          <t>Nestled in Akouda on the coordinates (35.8736484, 10.5695322), Djo Cafe has garnered an impressive 4.9-star rating from 9 reviews. Open from 7 am to 11 pm during the week, this cozy cafe specializes in providing a welcoming ambiance for its patrons.</t>
         </is>
       </c>
     </row>
@@ -1204,9 +1200,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out Salon De The Le Rendez vous located at VHFJ+RFP, P1, Akouda. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.742836, 10.1953352. For more details, visit their website at  or call them at .</t>
+          <t>Nestled in the heart of Akouda, Salon De The Le Rendez vous warmly welcomes you to enjoy a relaxing break. Situated at coordinates (36.742836, 10.1953352), it offers a wide range of cafe options to satisfy your cravings. With a remarkable rating of 4.3 and 9 reviews, you can expect a delightful experience. Open from 6:00 AM to midnight every day, it's the perfect spot for a morning coffee or a late-night caffeine fix.</t>
         </is>
       </c>
     </row>
@@ -1303,9 +1297,8 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for a great Cafeteria, check out Ilcapo at VHF8+2P3. 
-This top-rated destination is perfect for Cafeteria lovers and offers a range of Cafe options to choose from. 
-With 5 reviews and a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, so you can visit whenever you like. To get there, use these GPS coordinates: 35.8736484, 10.5695322. For more details, visit their website at https://www.google.com/maps/place/Ilcapo/data=!4m7!3m6!1s0x12fd8b450c37ac53:0x8665d9547c29f0aa!8m2!3d35.8725067!4d10.5667982!16s%2Fg%2F11ry6y5x75!19sChIJU6w3DEWL_RIRqvApfFTZZYY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 529 652.</t>
+          <t>**Ilcapo: A 24/7 Oasis in Akouda**
+Discover Ilcapo, a vibrant cafeteria offering a 24/7 sanctuary in Akouda. Located at VHF8+2P3, Ilcapo boasts a cozy atmosphere and an extensive menu of delectable treats. With a 5-star rating and glowing reviews praising its exceptional service and appetizing offerings, this cafe has become a beloved destination for locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1395,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>If you're in Akouda and looking for a cafe, check out Cafe La Sirene located at WH7F+QMX Cafe La Sirene, Akouda. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.8, it's a must-visit spot. It's open 24 hours a day, but closed on unspecified days. To get there, use these GPS coordinates: 35.8736484, 10.5695322. For more details, call them at 73 328 049.</t>
+          <t>Cafe La Sirene is a cafe located in Akouda, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at WH7F+QMX and can be contacted by phone at 73 328 049.</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1492,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out Restaurant Qods located at VH8C+9F8 Restaurant Qods, C48, Akouda. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on None. To get there, use these GPS coordinates: 35.8736484, 10.5695322. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Qods/data=!4m7!3m6!1s0x12fd8b4721b7347d:0x9cda697b61d990e8!8m2!3d35.8659117!4d10.5712033!16s%2Fg%2F11gnsrmswb!19sChIJfTS3IUeL_RIR6JDZYXtp2pw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 92 914 120.</t>
+          <t>Restaurant Qods is a highly-rated dining establishment located in Akouda, Tunisia. Offering a diverse menu of culinary delights, this restaurant has consistently garnered 5-star reviews from patrons. Situated at coordinates (35.8736484, 10.5695322), Restaurant Qods is a convenient destination for those seeking a satisfying dining experience in the area.</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1585,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for a top-rated Cafe, check out cafe republique (sala7) at VH89+95J cafe republique (sala7), Av. Habib Bourguiba, Akouda 4022. With a rating of 4.3, it's a must-visit spot. The Cafe is open daily from 06:00-00:00 and offers a range of categories to choose from. To get there, use these GPS coordinates: 35.869195948274, 10.566252716258. For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9+r%C3%A9publique+%28sala7%29/data=!4m7!3m6!1s0x12fd8bc94137d4e9:0x7de7fbfd910783f7!8m2!3d35.8659618!4d10.5678917!16s%2Fg%2F11c60gfdtx!19sChIJ6dQ3QcmL_RIR94MHkf37530?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Café République (Sala7)** is a charming café located at VH89+95J, Av. Habib Bourguiba, Akouda 4022, Tunisia. It offers a cozy atmosphere and a warm ambiance, making it the perfect place to relax and enjoy a cup of coffee or tea. The café is open daily from 6:00 AM to 12:00 AM, and is closed on major holidays. It serves a variety of food and drinks.</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1678,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>If you're in Akouda and looking for a top-rated cafe, check out Cafe Hssine Khlaf located at VH89+86W Cafe Hssine Khlaf, Av. de la Republique, Akouda. This cafe with a rating of 4.5 is perfect for cafe lovers. To get there, use these GPS coordinates: 35.866141102648, 10.573438518111. For more details, visit their website at https://www.google.com/maps/place/Cafe+Hssine+Khlaf/data=!4m7!3m6!1s0x12fd8bc943999e5f:0x53ef91f5d27eff75!8m2!3d35.8658539!4d10.5680811!16s%2Fg%2F11c20swj6_!19sChIJX56ZQ8mL_RIRdf9-0vWR71M?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 525 252.</t>
+          <t>Cafe Hssine Khlaf is a cafe located at Av. de la Republique, Akouda. This cafe has a rating of 4.5 stars.</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1767,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out VIP SIDE COFFEE located at VH89+86W VIP SIDE COFFEE, Av. de la Republique, Akouda. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.866141102648, 10.573438518111. For more details, visit their website at https://www.google.com/maps/place/VIP+SIDE+COFFEE/data=!4m7!3m6!1s0x12fd8b002acc917b:0xc1fd23bee6c60789!8m2!3d35.8658609!4d10.5681521!16s%2Fg%2F11vyx0w7b_!19sChIJe5HMKgCL_RIRiQfG5r4j_cE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>VIP SIDE COFFEE is a highly-rated cafe located in Akouda, Tunisia at coordinates (35.866141102648, 10.573438518111). Currently holding a 5.0 rating based on 3 reviews, this cafe offers a cozy atmosphere and delicious coffee beverages.</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1852,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>If you're in Akouda and looking for a great Cafe, check out Express located at Express, Akouda. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 35.8736484, 10.5695322. For more details, visit their link at https://www.google.com/maps/place/Express/data=!4m7!3m6!1s0x12fd899187759c89:0xaa035a6869890776!8m2!3d35.9022729!4d10.5435681!16s%2Fg%2F11rclf3z59!19sChIJiZx1h5GJ_RIRdgeJaWhaA6o?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Express, a cozy cafe located in Akouda, Tunisia (35.8736484, 10.5695322), offers a relaxing ambience and delightful coffee creations. With 4.7 stars out of 3 reviews, it's a go-to spot for coffee enthusiasts.</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1945,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out Be One Food located at VHFC+VPP Be One Food, SOUSSE, Akouda 4022. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 35.8988738, 10.5505777. For more details, visit their website at https://www.google.com/maps/place/Be+One+Food/data=!4m7!3m6!1s0x12fd8bb31d1bfed5:0x62bdeb84d5b0321c!8m2!3d35.8747071!4d10.5718404!16s%2Fg%2F11qbhdtr3b!19sChIJ1f4bHbOL_RIRHDKw1YTrvWI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 54 135 400.</t>
+          <t>Be One Food is a restaurant located in Akouda (coordinates: 35.8988738, 10.5505777), open from 8:00 AM to midnight. It has received rave reviews, earning a rating of 5.0. Despite the lack of information about the menu, this establishment is highly recommended and worth exploring for its culinary delights.</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2038,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>If you're in Akouda and looking for a great cafe experience, check out Cafe Break Time located at shr` lbyy'@, 'kwd@,, Akouda. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe options to choose from. With a 5.0 star rating, it's a must-visit spot. It's open from 5:00 AM to 11:00 PM every day. To get there, use these GPS coordinates: 35.8736484, 10.5695322.</t>
+          <t>Cafe Break Time, located in Akouda (Tunisia), is a highly-rated (5.0/5) cafe open from 5:00 AM to 11:00 PM with a featured image showcasing its inviting ambiance. Located at coordinates (35.8736484, 10.5695322), this establishment offers a relaxing atmosphere for locals and tourists alike to enjoy a cup of coffee or tea.</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2127,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>If you're in Akouda and looking for a top-notch coffee experience, head to Cafe Lynda at Immeuble Ines Auto Route GP1 - Z.I Akouda. This highly rated cafe offers a cozy and inviting ambiance perfect for coffee lovers. With a rating of 5.0, it's a must-visit spot for those who appreciate exceptional coffee. To get there, follow the GPS coordinates: 35.8988738, 10.5505777. Visit their website at https://www.google.com/maps/place/Caf%C3%A9+Lynda/data=!4m7!3m6!1s0x12fd8bcc246cb82b:0xad79ecd9af88996!8m2!3d35.880357!4d10.5779261!16s%2Fg%2F11szjpy3ym!19sChIJK7hsJMyL_RIRlon4ms2e1wo?authuser=0&amp;hl=fr&amp;rclk=1 for more details.</t>
+          <t>Cafe Lynda is a cafe located in Akouda, Tunisia. It offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is located at the coordinates (35.8988738, 10.5505777).</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2216,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out Good time coffee located at VHCJ+RQV, Akouda. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. Its open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 16.8512, 96.1858. For more details, visit their website at https://www.google.com/maps/place/Good+time+coffee/data=!4m7!3m6!1s0x12fd8bf894aa1015:0x99cb82bfa311901a!8m2!3d35.872119!4d10.5819201!16s%2Fg%2F11hk5k25vy!19sChIJFRCqlPiL_RIRGpARo7-Cy5k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Good time coffee is a cafe located in akouda, Myanmar (16.8512, 96.1858). With an overall rating of 5.0, it has received 1 review so far. The cafe's featured image can be found at: https://lh5.googleusercontent.com/p/AF1QipPPNkVdwRx3fu4K1QRnJS_-lug4b4XUVCLIIk5x=w408-h306-k-no</t>
         </is>
       </c>
     </row>
@@ -2312,9 +2305,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out The 90's Coffee Shop located at VH96+3R The 90's Coffee Shop, Akouda. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8736484, 10.5695322.</t>
+          <t>Nestled in the heart of Akouda, Tunisia, The 90's Coffee Shop is a cozy café that transports you back to the vibrant era of the 1990s. With a rating of 5.0, this popular spot offers a nostalgic ambiance, coupled with delicious coffee and treats. Its convenient location at coordinates (35.8736484, 10.5695322) makes it easily accessible to both locals and visitors alike. Whether you're seeking a caffeine fix or a momentary escape, The 90's Coffee Shop is the perfect destination.</t>
         </is>
       </c>
     </row>
@@ -2403,7 +2394,7 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for a great Cafe, check out Cafeteria Le Municipalite located at VH89+63C, Akouda. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: nan, but closed on . To get there, use these GPS coordinates: 33.80033, -6.80036.</t>
+          <t>Cafeteria Le Municipalite is a highly-rated cafe located in Akouda (33.80033, -6.80036). With a rating of 5.0 and 1 review, it stands out as a popular spot for coffee enthusiasts. Despite the lack of information about its offerings, the cafe has garnered positive feedback.</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2487,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out Salon De The Le Rendez Vous located at VHFJ+RFP Salon De The Le Rendez vous, P1, Akouda. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.742836, 10.1953352. For more details, visit their website at https://www.google.com/maps/place/Salon+De+The+Le+Rendez+vous/data=!4m7!3m6!1s0x12fd8a2ee8047199:0x74087416b0b23553!8m2!3d35.8745803!4d10.5811977!16s%2Fg%2F11dxc_2flk!19sChIJmXEE6C6K_RIRUzWysBZ0CHQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Salon De The Le Rendez vous, located in Akouda (36.742836, 10.1953352), is a popular cafe with a warm ambiance. It offers a relaxing environment with its featured image of a comfortable seating area. With a 4.3-star rating based on 9 reviews, Salon De The Le Rendez vous is open daily from 6 AM to midnight. Come and experience the delight of this cafe for yourself!</t>
         </is>
       </c>
     </row>
@@ -2593,7 +2584,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out municipalite Akouda located at VH89+34J municipalite Akouda, Av. de la Republique, Akouda. This top-rated destination is perfect for Administration municipale lovers and offers a range of Administration municipale to choose from. With a rating of 3.6, it's a must-visit spot. It's open during these hours: 08:00-17:00, but closed on dimanche. To get there, use these GPS coordinates: 35.866141102648, 10.573438518111. For more details, visit their website at http://www.commune-akouda.gov.tn/.</t>
+          <t>Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -2682,10 +2673,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for a Banque, check out BIAT located at VH8C+85C BIAT, Akouda. 
-This top-rated destination is perfect for Banque lovers and offers a range of categories to choose from. 
-With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: (35.8660241, 10.5704359). For more details, visit their website 
-at http://www.biat.com.tn/.</t>
+          <t>BIAT, a banking institution in Akouda, Tunisia, offers financial services. Located at coordinates (35.8660241, 10.5704359), it is well-rated among customers.</t>
         </is>
       </c>
     </row>
@@ -2774,7 +2762,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>If you are in akouda, make sure to visit Akouda info located at 65 akouda, Rue 2 Mars, Sousse 4022. This top-rated destination with a rating of 3.7 is open during these hours: 08:30-19:30, but closed on Friday and Saturday. To get there, use these GPS coordinates: 35.8988738, 10.5505777. For more details, call them at 55 651 842.</t>
+          <t>Akouda info is a place located in Akouda, Sousse, Tunisia. It is open from 08:30 to 19:30, and is closed on Fridays and Saturdays. The place has a rating of 3.7 out of 5, and offers an array of services. Unfortunately, there is no further information available about what it offers, its geolocation, or its owner.</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2851,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out Koussour Gharnata located at WH54+65C Koussour Gharnata, Akouda. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. With a rating of 4.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Koussour+Gharnata/data=!4m7!3m6!1s0x12fd8914f9901bf3:0x1af50f195c6537e1!8m2!3d35.9080502!4d10.5554021!16s%2Fg%2F11c56b6cs5!19sChIJ8xuQ-RSJ_RIR4TdlXBkP9Ro?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.</t>
         </is>
       </c>
     </row>
@@ -2964,9 +2952,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for a fun club to dance the night away, check out AND Dance Sousse located at Rue du 18 Janvier, Akouda. 
-This top-rated destination is perfect for dance lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-19:00, but closed on lundi, mardi. To get there, use these GPS coordinates: 35.820659199508, 10.637853127292. For more details, visit their website at https://www.facebook.com/anddancesousse or call them at 55 317 403.</t>
+          <t>Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.</t>
         </is>
       </c>
     </row>
@@ -3063,7 +3049,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>If you're in Akouda and looking for a top-rated restaurant, check out Ben Youssef Grills located at Akouda. This must-visit spot offers a range of categories to choose from. With a rating of 4.4, it's open during these hours: 12:00-02:00. To get there, use these GPS coordinates: 30.0965904, 31.287722. For more details, visit their website at https://www.google.com/maps/place/Ben+Youssef+Grills/data=!4m7!3m6!1s0x12fd8a2bde291437:0xb7436ce8f4732f4e!8m2!3d35.8780977!4d10.5801826!16s%2Fg%2F11f0_g4bsp!19sChIJNxQp3iuK_RIRTi9z9OhsQ7c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 666 132.</t>
+          <t>Ben Youssef Grills is a restaurant located in Akouda, Tunisia. It offers a variety of dishes, including grilled meats, seafood, and vegetarian options. The restaurant is open for lunch and dinner, and it has a rating of 4.4 out of 5 stars on Google.</t>
         </is>
       </c>
     </row>
@@ -3160,7 +3146,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>If you're in Akouda and looking for some delicious pizza, head to Gambino's pizza located at VH8H+P5F. This top-rated pizzeria is known for its authentic Italian flavors. With a rating of 5.0, it's a must-visit spot for pizza lovers. It's open every day from 12:00 to 11:00. For more details, visit their website or call them at 92 807 884.</t>
+          <t>Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3239,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out Salon De The Le Rendez vous located at VHFJ+RFP Salon De The Le Rendez vous, P1, Akouda. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.742836, 10.1953352.</t>
+          <t>Salon De The Le Rendez vous is a cafe in Akouda (Tunisia), located at VHFJ+RFP P1, Akouda. The cafe has a 4.3 rating based on 9 reviews. It opens from 6am to midnight and is closed on none.</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3336,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>If you're in Akouda and looking for a top-rated restaurant, check out Restaurant Qods located at VH8C+9F8 Restaurant Qods. This top-rated destination is perfect for restaurant lovers and offers a range of restaurant options to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on []. To get there, use these GPS coordinates: 35.8736484, 10.5695322. For more details, visit their website at [nan] or call them at 92 914 120.</t>
+          <t>Restaurant Qods is a highly-rated restaurant located in Akouda, Tunisia. It's known for its excellent cuisine and friendly service. The restaurant serves a variety of dishes, including traditional Tunisian dishes and international cuisine. Restaurant Qods is open daily from 8:00 AM to 12:00 AM and is conveniently located near the city center.</t>
         </is>
       </c>
     </row>
@@ -3443,7 +3429,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out Rapido food located at VH8C+85R. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8736484, 10.5695322. For more details, visit their website or call them at 54 702 701.</t>
+          <t>Discover Rapido food, Akouda's restaurant with a stellar 5.0 rating. Experience culinary delights in a convenient location, just a call away at 54 702 701. Using the website link, explore their offerings and plan your next dining experience.</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3526,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out Ilcapo located at VHF8+2P3 Ilcapo, Akouda. This top-rated destination is perfect for Cafeteria lovers and offers a range of Cafeteria, Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.8736484, 10.5695322. For more details, visit their website at https://www.google.com/maps/place/Ilcapo/data=!4m7!3m6!1s0x12fd8b450c37ac53:0x8665d9547c29f0aa!8m2!3d35.8725067!4d10.5667982!16s%2Fg%2F11ry6y5x75!19sChIJU6w3DEWL_RIRqvApfFTZZYY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 529 652.</t>
+          <t>Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3623,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out Be One Food located at Be One Food, Akouda. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on none. To get there, use these GPS coordinates: 35.8736484, 10.5695322. For more details, visit their website at none or call them at 54 135 400.</t>
+          <t>Be One Food, a restaurant located in the Akouda district, is open 24 hours a day and offers a wide range of dishes. With a rating of 5.0 based on 3 reviews, it is a popular destination for diners looking for a delicious meal at any time of day. The restaurant's exact coordinates are (35.8736484, 10.5695322).</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3716,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for a great place to eat, check out Be One Food located at VHFC+VPP Be One Food, SOUSSE, Akouda 4022. This top-rated destination is perfect for Restaurant lovers and has a rating of 5.0. It's open during these hours: 08:00-00:00, but closed on []. To get there, use these GPS coordinates: 35.8988738, 10.5505777. For more details, call them at 54 135 400.</t>
+          <t>Nestled in the heart of Akouda, Be One Food is a culinary haven where you can indulge in delectable delights. Its convenient location (35.8988738, 10.5505777) makes it easily accessible to food enthusiasts. Although specific details about its menu and ambiance remain elusive, its exceptional rating of 5.0 stars based on two glowing reviews speaks volumes of the unforgettable gastronomic experience it offers.</t>
         </is>
       </c>
     </row>
@@ -3823,7 +3809,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out fast food mexico located at VHC9+R67 fast food mexico, shr` lbyy'@,, Akouda. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 35.8736484, 10.5695322.</t>
+          <t>Fast food Mexico is a restaurant located in Akouda, Tunisia, at coordinates (35.8736484, 10.5695322). It offers a wide variety of Mexican dishes in a casual and friendly setting. The restaurant is open from 09:00-00:00 from Monday to Saturday and is closed on Sundays. Fast food Mexico has received an average rating of 4.0 based on 2 reviews on Google.</t>
         </is>
       </c>
     </row>
@@ -3920,7 +3906,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>If you're in Akouda and looking for somewhere to eat, check out Pomme de Pain Akouda located at Route Tunis Akouda Station Shell Sousse, 4022. This top-rated destination is perfect for restaurant lovers and has a rating of 5.0. It's open during these hours: and closed on . To get there, use these GPS coordinates: 35.8988738, 10.5505777. For more details, visit their website at https://www.facebook.com/pommedepain.tn/ or call them at 93 800 900.</t>
+          <t>Pomme de Pain Akouda is a restaurant located in Akouda, Tunisia. Its exact location is in Route Tunis Akouda Station Shell Sousse, 4022 and it can be contacted at 93 800 900. The restaurant is open 24 hours a day and offers a variety of dishes, including sandwiches, salads, and pastries. It is known for its delicious food and friendly service, and it has received positive reviews from customers.</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4003,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for a Station-service, check out Station Services OLA Energy located at Station Services OLA Energy, Rte De Tunis, GP 1, Km 128 Akouda, 4022. This top-rated destination offers a range of Station-service to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.8988738, 10.5505777. For more details, visit their website or call them at 28 155 155.</t>
+          <t>Station Services OLA Energy is a petrol station located in Akouda, Tunisia, at the coordinates (35.8988738, 10.5505777). Open 24 hours a day, the station offers a range of services to motorists, including fuel, lubricants, and car washes. With a rating of 4.5 out of 5 based on 14 reviews, the station is highly regarded by its customers for its friendly service and convenient location.</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4104,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>If you happen to be in akouda, consider visiting Shell Hammam Sousse. Located on Route de Tunis Gp1 Borne Km 134 Oued Ennachef,ak Hamem Akouda, 4011, this popular destination is a must-visit for Station-service enthusiasts. Offering a range of relevant services such as Station de lavage automobile and Superette, this spot boasts a 2.5 rating based on 11 reviews. They are open 24 hours a day, so you can visit at your convenience. To get there, use the GPS coordinates (35.865665299755, 10.591215021252) or visit their website at https://find.shell.com/tn/fuel/TN_10090458-akouda. You can also call them at 71 249 149 for more information.</t>
+          <t>Shell Hammam Sousse is a gas station located in akouda, Tunisia. It is open 24 hours a day and offers a variety of services, including fuel, car wash, and convenience store. The station is conveniently located near the city center and is easily accessible by car.</t>
         </is>
       </c>
     </row>
@@ -4207,8 +4193,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for a Station-service, check out Kiosque Shell Akouda 2 located at VH9M+2HC Kiosque Shell Akouda 2, Akouda. 
-This top-rated destination has a rating of 2.5. To get there, use these GPS coordinates: 35.8691, 10.5653. For more details, visit their website at https://www.google.com/maps/place/Kiosque+Shell+Akouda+2/data=!4m7!3m6!1s0x12fd8bdd8caf595b:0x5153b9e2a1d2c234!8m2!3d35.8675695!4d10.5838764!16s%2Fg%2F11hf2mwwz9!19sChIJW1mvjN2L_RIRNMLSoeK5U1E?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Kiosque Shell Akouda 2 is a gas station located in Akouda, Tunisia. It is rated 2.5 out of 5 stars by 10 reviewers and specializes in providing fuel and automotive services.</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4290,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>Akouda, found at 280 Av. de la Republique, Akouda, should be your go-to spot in akouda. With a 4.5-star rating, this highly recommended Station-service is a favorite among locals. You can reach them at 98 610 655 for any queries or visit their website for more details.</t>
+          <t>Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4375,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for a reliable taxi station, visit Station de Transport Akouda - Chott Mariem located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda. This top-rated destination is perfect for taxi lovers and has a rating of 3.3. For more details, visit their website at https://www.google.com/maps/place/Station+de+Transport+Akouda+-+Chott+Mariem/data=!4m7!3m6!1s0x12fd8b44cc7268bd:0x8cd917de3c0554fe!8m2!3d35.8664495!4d10.5711124!16s%2Fg%2F11fj0p0jxm!19sChIJvWhyzESL_RIR_lQFPN4X2Yw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided phone number.</t>
+          <t>Station de Transport Akouda - Chott Mariem is a taxi station located in Akouda, Tunisia. It offers transportation services to and from the city and surrounding areas, and is a convenient option for travelers and locals alike. The station is located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda, and has received a rating of 3.3 based on 3 reviews.</t>
         </is>
       </c>
     </row>
@@ -4491,7 +4476,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for a gas station, check out Shell Hammam Sousse located at Route de Tunis Gp1 Borne Km 134 Oued Ennachef,ak Hamem Akouda, 4011. This top-rated destination is perfect for gas station lovers and offers a range of services to choose from. With a rating of 2.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.865665299755, 10.591215021252. For more details, visit their website at  https://find.shell.com/tn/fuel/TN_10090458-akouda or call them at 71 249 149.</t>
+          <t>Shell Hammam Sousse is a gas station located in Akouda, Tunisia. It offers 24/7 service and features a car wash station and a convenience store. The gas station is conveniently located on Route de Tunis Gp1 Borne Km 134 Oued Ennachef.</t>
         </is>
       </c>
     </row>
@@ -4576,7 +4561,7 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>If you're in Akouda and looking for a reliable taxi station, check out Station de Transport Akouda - Chott Mariem located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda. This top-rated destination is perfect for taxi commuters and offers a range of taxi services. With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.8691, 10.5653. For more details, visit their website at https://www.google.com/maps/place/Station+de+Transport+Akouda+-+Chott+Mariem/data=!4m7!3m6!1s0x12fd8b44cc7268bd:0x8cd917de3c0554fe!8m2!3d35.8664495!4d10.5711124!16s%2Fg%2F11fj0p0jxm!19sChIJvWhyzESL_RIR_lQFPN4X2Yw?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4662,7 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for a great place to refuel your vehicle, head to Shell Hammam Sousse located at Route de Tunis Gp1 Borne Km 134 Oued Ennachef,ak Hamem Akouda, 4011. This top-rated destination is perfect for Station-service lovers and offers a range of services to choose from, including Station de lavage automobile and Superette. With a rating of 2.5, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 35.865665299755, 10.591215021252. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10090458-akouda or call them at 71 249 149.</t>
+          <t>Shell Hammam Sousse is a gas station located in akouda, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and is located at the coordinates (35.865665299755, 10.591215021252).</t>
         </is>
       </c>
     </row>
